--- a/formshare/tests/resources/forms/merge_multilanguaje/asistencia_tecnica_2_complete_language.xlsx
+++ b/formshare/tests/resources/forms/merge_multilanguaje/asistencia_tecnica_2_complete_language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -486,10 +486,16 @@
     <t xml:space="preserve">version</t>
   </si>
   <si>
+    <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Formato de asistencia tecnica V2</t>
   </si>
   <si>
     <t xml:space="preserve">3 (2021-09-20 14:25:15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asistencia_tecnica_2_complete_language</t>
   </si>
 </sst>
 </file>
@@ -589,11 +595,11 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.45"/>
@@ -1129,7 +1135,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.33"/>
@@ -1705,18 +1711,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>151</v>
       </c>
@@ -1726,13 +1732,19 @@
       <c r="C1" s="0" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/formshare/tests/resources/forms/merge_multilanguaje/asistencia_tecnica_2_complete_language.xlsx
+++ b/formshare/tests/resources/forms/merge_multilanguaje/asistencia_tecnica_2_complete_language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="161">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">phonenumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_from_file provincia.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia</t>
   </si>
   <si>
     <t xml:space="preserve">select_one fd99x90</t>
@@ -502,10 +511,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -527,6 +537,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Bitstream Vera Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -571,8 +587,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -593,15 +613,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.78"/>
@@ -663,8 +683,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -676,82 +696,76 @@
       <c r="D4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>32</v>
@@ -766,24 +780,27 @@
         <v>34</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,68 +816,62 @@
       <c r="D10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="G11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>50</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>51</v>
@@ -872,18 +883,18 @@
         <v>52</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>54</v>
@@ -895,18 +906,18 @@
         <v>55</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>57</v>
@@ -918,18 +929,18 @@
         <v>58</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>60</v>
@@ -941,18 +952,18 @@
         <v>61</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>63</v>
@@ -964,18 +975,18 @@
         <v>64</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>66</v>
@@ -987,18 +998,18 @@
         <v>67</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>68</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>69</v>
@@ -1010,18 +1021,18 @@
         <v>70</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>72</v>
@@ -1033,18 +1044,18 @@
         <v>73</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>74</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>75</v>
@@ -1056,18 +1067,18 @@
         <v>76</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>77</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>78</v>
@@ -1079,38 +1090,61 @@
         <v>79</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>80</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>82</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>82</v>
+      </c>
       <c r="G23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="0" t="s">
         <v>83</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>85</v>
+      <c r="B25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1169,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.33"/>
@@ -1144,7 +1178,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1158,541 +1192,541 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1713,38 +1747,38 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
